--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_beg.xlsx
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  라이타니엔은 분명 이들을 버렸을 거다.
+    <t xml:space="preserve">[name="살카즈 전사"]  라이타니아는 분명 이들을 버렸을 거다.
 </t>
   </si>
   <si>
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  넌 뭐부터 말할 거냐? 라이타니엔의 부패한 제도 문제부터? 아니면 림 빌리턴의 피비린내 나는 개척 사업 문제부터?
+    <t xml:space="preserve">[name="무장 감염자"]  넌 뭐부터 말할 거냐? 라이타니아의 부패한 제도 문제부터? 아니면 림 빌리턴의 피비린내 나는 개척 사업 문제부터?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_beg.xlsx
@@ -980,11 +980,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk A"]  Tatjana! They broke the last Gramophone! There’s nothing we can do against those giants!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk B"]  Hey! The rioters started burning houses! Bastards... and the fire’s spreading!
+    <t xml:space="preserve">[name="Townsfolk A"]  Tatjana! They broke the last Gramophone! There's nothing we can do against those giants!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk B"]  Hey! The rioters started burning houses! Bastards... and the fire's spreading!
 </t>
   </si>
   <si>
@@ -992,19 +992,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Schultz Severin is... wounded. He’s resting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk A"]  He’s resting while we’re out here risking our lives—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk B"]  Quiet! We can’t be fighting each other right now. Look around you, moron!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk A"]  Who’s a moron?! I don’t see you doing anything with your Arts!
+    <t xml:space="preserve">[name="Tatjana"]  Schultz Severin is... wounded. He's resting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk A"]  He's resting while we're out here risking our lives—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk B"]  Quiet! We can't be fighting each other right now. Look around you, moron!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk A"]  Who's a moron?! I don't see you doing anything with your Arts!
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Tatjana! Focus! You’re too far out! Careful!
+    <t xml:space="preserve">[name="Townsfolk"]  Tatjana! Focus! You're too far out! Careful!
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Now, the last piece is crumbling to bits. They can’t stop us.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Now, the last piece is crumbling to bits. They can't stop us.
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  There was a time when we grew weary of such tragedy. Let’s not forget, standing here.
+    <t xml:space="preserve">[name="Mudrock"]  There was a time when we grew weary of such tragedy. Let's not forget, standing here.
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Sure. Say, why don’t you ever talk like this? I’m just complaining.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Sure. Say, why don't you ever talk like this? I'm just complaining.
 </t>
   </si>
   <si>
@@ -1132,11 +1132,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  It’s just so anti-climactic. I’m disappointed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  They’re pushing in!
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  It's just so anti-climactic. I'm disappointed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  They're pushing in!
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  I- I’m coming!
+    <t xml:space="preserve">[name="Suzuran"]  I- I'm coming!
 </t>
   </si>
   <si>
@@ -1152,15 +1152,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Where did that Vulpo come from? Are those nine tails I’m seeing?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  No way! She’s Infected! Why is she with them?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  So young... After all you’ve suffered, shouldn’t you be fighting back?!
+    <t xml:space="preserve">[name="Armed Infected"]  Where did that Vulpo come from? Are those nine tails I'm seeing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  No way! She's Infected! Why is she with them?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  So young... After all you've suffered, shouldn't you be fighting back?!
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Comrade! Don’t be deceived! Fight the power!
+    <t xml:space="preserve">[name="Armed Infected"]  Comrade! Don't be deceived! Fight the power!
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  You... don’t know anything!
+    <t xml:space="preserve">[name="Suzuran"]  You... don't know anything!
 </t>
   </si>
   <si>
@@ -1192,19 +1192,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  The Arts around her slowed down? Where do those Arts come from? I’ve never seen it in the books.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  You can’t decide someone else’s fate. Rhodes Island, Mom and Dad, everyone’s always been so good to me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  And you! Don’t sneak up on me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Agh...! I can’t... move...!
+    <t xml:space="preserve">[name="Townsfolk"]  The Arts around her slowed down? Where do those Arts come from? I've never seen it in the books.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  You can't decide someone else's fate. Rhodes Island, Mom and Dad, everyone's always been so good to me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  And you! Don't sneak up on me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Agh...! I can't... move...!
 </t>
   </si>
   <si>
@@ -1216,11 +1216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Stop ruining things for everyone! Think about all the pain you’re causing everyone else!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  ...So, what’s next?
+    <t xml:space="preserve">[name="Suzuran"]  Stop ruining things for everyone! Think about all the pain you're causing everyone else!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  ...So, what's next?
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I... I don’t know what to do...
+    <t xml:space="preserve">[name="Folinic"]  I... I don't know what to do...
 </t>
   </si>
   <si>
@@ -1256,19 +1256,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  It’s ridiculous, ironic, and hopeless. A doctor dedicated to healing the Infected died in the midst of an Infected riot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’ve been fuming about it... more than anyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Why? Why does it have to be this way? Why doesn’t anyone know what’s happening here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Killing each other doesn’t solve anything! You’re all going to die!
+    <t xml:space="preserve">[name="GreyThroat"]  It's ridiculous, ironic, and hopeless. A doctor dedicated to healing the Infected died in the midst of an Infected riot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  I've been fuming about it... more than anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Why? Why does it have to be this way? Why doesn't anyone know what's happening here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Killing each other doesn't solve anything! You're all going to die!
 </t>
   </si>
   <si>
@@ -1276,7 +1276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  I’m not moving!
+    <t xml:space="preserve">[name="Suzuran"]  I'm not moving!
 </t>
   </si>
   <si>
@@ -1284,19 +1284,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Listen to what? Are you playing judge here? Who are you to determine what’s right and what’s wrong?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  How do you think we got here? Plenty of wannabe philosophers out there railing about the era, the country, and human nature. They don’t know shit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  But if you’re walking down the road and a highwayman with a knife asks you for some charity...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Are you gonna have a heart-to-heart about Leithania’s corruption? Or about Rim Billiton’s blood-soaked operations?
+    <t xml:space="preserve">[name="Armed Infected"]  Listen to what? Are you playing judge here? Who are you to determine what's right and what's wrong?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  How do you think we got here? Plenty of wannabe philosophers out there railing about the era, the country, and human nature. They don't know shit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  But if you're walking down the road and a highwayman with a knife asks you for some charity...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Are you gonna have a heart-to-heart about Leithania's corruption? Or about Rim Billiton's blood-soaked operations?
 </t>
   </si>
   <si>
@@ -1304,39 +1304,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Uh oh...! I can’t... hold out much longer...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  He’s thinking about how to kill you and get away with it. And you’re thinking about whether you should shoot first, or try to put a little distance between you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Nine times out of ten, you’re just trying to make it out alive.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  There’s always little people to sacrifice. Turns out they’re people like us, not like you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  You rest easy, talk about your ideals, complain about the shitty state of the world. You talk about the big picture. The real enemy is far away, so you don’t deal with the problems right in front of you. Hah!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  It’s working! Keep it up!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  But you’re all innocent! It’s not like you all wanted this...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Innocent? Pfft. I don’t need your sympathy. None of us are innocent. Piss off.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  We’re doing what it takes to survive. Even if that means somebody else can’t. There’s no charity in survival.
+    <t xml:space="preserve">[name="Suzuran"]  Uh oh...! I can't... hold out much longer...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  He's thinking about how to kill you and get away with it. And you're thinking about whether you should shoot first, or try to put a little distance between you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Nine times out of ten, you're just trying to make it out alive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  There's always little people to sacrifice. Turns out they're people like us, not like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  You rest easy, talk about your ideals, complain about the shitty state of the world. You talk about the big picture. The real enemy is far away, so you don't deal with the problems right in front of you. Hah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  It's working! Keep it up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  But you're all innocent! It's not like you all wanted this...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Innocent? Pfft. I don't need your sympathy. None of us are innocent. Piss off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  We're doing what it takes to survive. Even if that means somebody else can't. There's no charity in survival.
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Hey! What’s up with that nine-tailed Vulpo girl?!
+    <t xml:space="preserve">[name="Armed Infected"]  Hey! What's up with that nine-tailed Vulpo girl?!
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  We’re here.
+    <t xml:space="preserve">[name="GreyThroat"]  We're here.
 </t>
   </si>
   <si>
@@ -1372,7 +1372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  But they’re not...
+    <t xml:space="preserve">[name="GreyThroat"]  But they're not...
 </t>
   </si>
   <si>
@@ -1380,11 +1380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  They’re the core of this riot. Get rid of them and it falls apart!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  If it weren’t for them, Atro would still be alive!
+    <t xml:space="preserve">[name="Folinic"]  They're the core of this riot. Get rid of them and it falls apart!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  If it weren't for them, Atro would still be alive!
 </t>
   </si>
   <si>
@@ -1404,23 +1404,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  This isn’t your first time. It’s not mine... either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m just... at a loss.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Let’s go. Rhodes Island is going to find a way to stop this riot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  It’s Rhodes Island. You put all your hopes in a bunch of kids, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  They’re so green. They didn’t even get here in time to stop all this. It’s already over.
+    <t xml:space="preserve">[name="Folinic"]  This isn't your first time. It's not mine... either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'm just... at a loss.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Let's go. Rhodes Island is going to find a way to stop this riot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  It's Rhodes Island. You put all your hopes in a bunch of kids, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  They're so green. They didn't even get here in time to stop all this. It's already over.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_beg.xlsx
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  라이타니아는 분명 이들을 버렸을 거다.
+    <t xml:space="preserve">[name="살카즈 전사"]  라이타니엔은 분명 이들을 버렸을 거다.
 </t>
   </si>
   <si>
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  넌 뭐부터 말할 거냐? 라이타니아의 부패한 제도 문제부터? 아니면 림 빌리턴의 피비린내 나는 개척 사업 문제부터?
+    <t xml:space="preserve">[name="무장 감염자"]  넌 뭐부터 말할 거냐? 라이타니엔의 부패한 제도 문제부터? 아니면 림 빌리턴의 피비린내 나는 개척 사업 문제부터?
 </t>
   </si>
   <si>
